--- a/Data/EC/NIT-9002303608.xlsx
+++ b/Data/EC/NIT-9002303608.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0324BF3C-6E6B-4B4D-85A3-7C034EA904AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{110BA528-9AC9-4D72-8E0E-003A29CA5CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5D0E3188-1FCA-4EBE-9FF3-EB7094B957F0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1F8F0788-D2A2-43C6-8A76-DFBE9AA19611}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="52">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,91 +65,100 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73144479</t>
+  </si>
+  <si>
+    <t>ERVER HUMBERTO HERNANDEZ BUELVAS</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
     <t>1047390051</t>
   </si>
   <si>
     <t>VANESSA PINTO JARABA</t>
   </si>
   <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>73144479</t>
-  </si>
-  <si>
-    <t>ERVER HUMBERTO HERNANDEZ BUELVAS</t>
+    <t>45537758</t>
+  </si>
+  <si>
+    <t>HILDA DEL ROSARIO ACEVEDO CUELLO</t>
+  </si>
+  <si>
+    <t>1606</t>
   </si>
   <si>
     <t>1047469714</t>
   </si>
   <si>
     <t>LAURA CERIS HERNANDEZ CEBALLOS</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -563,7 +572,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82EB2B31-468A-E027-9A99-19BC16ACBEA9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2A797C5-4131-1AA6-1E89-0DC48E3DAD1E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -914,8 +923,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18FCCD79-5769-43F9-AB3E-585DC0883DCF}">
-  <dimension ref="B2:J90"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35BADE8E-6547-4DB6-8870-09814A1149A0}">
+  <dimension ref="B2:J91"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -939,7 +948,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -984,7 +993,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1016,12 +1025,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2012516</v>
+        <v>2040216</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1032,17 +1041,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C13" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F13" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1069,13 +1078,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1092,7 +1101,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>29509</v>
+        <v>17708</v>
       </c>
       <c r="G16" s="18">
         <v>737717</v>
@@ -1106,16 +1115,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G17" s="18">
         <v>737717</v>
@@ -1129,16 +1138,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G18" s="18">
         <v>737717</v>
@@ -1152,16 +1161,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F19" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G19" s="18">
         <v>737717</v>
@@ -1181,7 +1190,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
         <v>29509</v>
@@ -1198,10 +1207,10 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>16</v>
@@ -1221,10 +1230,10 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>17</v>
@@ -1244,13 +1253,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>29509</v>
@@ -1273,7 +1282,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>29509</v>
@@ -1296,7 +1305,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>29509</v>
@@ -1313,13 +1322,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>29509</v>
@@ -1336,13 +1345,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>29509</v>
@@ -1359,13 +1368,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>29509</v>
@@ -1382,13 +1391,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
         <v>29509</v>
@@ -1411,7 +1420,7 @@
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
         <v>29509</v>
@@ -1428,13 +1437,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
         <v>29509</v>
@@ -1457,7 +1466,7 @@
         <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
         <v>29509</v>
@@ -1474,13 +1483,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
         <v>29509</v>
@@ -1503,7 +1512,7 @@
         <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
         <v>29509</v>
@@ -1520,13 +1529,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
         <v>29509</v>
@@ -1543,13 +1552,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
         <v>29509</v>
@@ -1572,7 +1581,7 @@
         <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
         <v>29509</v>
@@ -1589,16 +1598,16 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>29509</v>
+        <v>27578</v>
       </c>
       <c r="G38" s="18">
         <v>737717</v>
@@ -1612,16 +1621,16 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F39" s="18">
-        <v>29509</v>
+        <v>17708</v>
       </c>
       <c r="G39" s="18">
         <v>737717</v>
@@ -1635,16 +1644,16 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F40" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G40" s="18">
         <v>737717</v>
@@ -1658,16 +1667,16 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F41" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G41" s="18">
         <v>737717</v>
@@ -1681,16 +1690,16 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F42" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G42" s="18">
         <v>737717</v>
@@ -1704,13 +1713,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F43" s="18">
         <v>29509</v>
@@ -1727,13 +1736,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F44" s="18">
         <v>29509</v>
@@ -1750,13 +1759,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F45" s="18">
         <v>29509</v>
@@ -1773,13 +1782,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F46" s="18">
         <v>29509</v>
@@ -1796,13 +1805,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F47" s="18">
         <v>29509</v>
@@ -1819,13 +1828,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F48" s="18">
         <v>29509</v>
@@ -1842,13 +1851,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F49" s="18">
         <v>29509</v>
@@ -1865,13 +1874,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F50" s="18">
         <v>29509</v>
@@ -1888,13 +1897,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F51" s="18">
         <v>29509</v>
@@ -1911,13 +1920,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F52" s="18">
         <v>29509</v>
@@ -1934,13 +1943,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F53" s="18">
         <v>29509</v>
@@ -1957,13 +1966,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F54" s="18">
         <v>29509</v>
@@ -1980,13 +1989,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F55" s="18">
         <v>29509</v>
@@ -2003,10 +2012,10 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E56" s="16" t="s">
         <v>28</v>
@@ -2026,13 +2035,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F57" s="18">
         <v>29509</v>
@@ -2049,13 +2058,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F58" s="18">
         <v>29509</v>
@@ -2072,13 +2081,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F59" s="18">
         <v>29509</v>
@@ -2095,13 +2104,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F60" s="18">
         <v>29509</v>
@@ -2118,13 +2127,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F61" s="18">
         <v>29509</v>
@@ -2141,19 +2150,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F62" s="18">
-        <v>29509</v>
+        <v>27700</v>
       </c>
       <c r="G62" s="18">
-        <v>737717</v>
+        <v>800000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2164,16 +2173,16 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F63" s="18">
-        <v>29509</v>
+        <v>17708</v>
       </c>
       <c r="G63" s="18">
         <v>737717</v>
@@ -2187,16 +2196,16 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F64" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G64" s="18">
         <v>737717</v>
@@ -2210,16 +2219,16 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F65" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G65" s="18">
         <v>737717</v>
@@ -2233,16 +2242,16 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F66" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G66" s="18">
         <v>737717</v>
@@ -2256,13 +2265,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F67" s="18">
         <v>29509</v>
@@ -2279,13 +2288,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F68" s="18">
         <v>29509</v>
@@ -2302,13 +2311,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F69" s="18">
         <v>29509</v>
@@ -2325,13 +2334,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F70" s="18">
         <v>29509</v>
@@ -2348,13 +2357,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F71" s="18">
         <v>29509</v>
@@ -2371,13 +2380,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F72" s="18">
         <v>29509</v>
@@ -2394,16 +2403,16 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F73" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G73" s="18">
         <v>737717</v>
@@ -2417,16 +2426,16 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F74" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G74" s="18">
         <v>737717</v>
@@ -2440,16 +2449,16 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F75" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G75" s="18">
         <v>737717</v>
@@ -2463,16 +2472,16 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F76" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G76" s="18">
         <v>737717</v>
@@ -2486,16 +2495,16 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F77" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G77" s="18">
         <v>737717</v>
@@ -2509,16 +2518,16 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F78" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G78" s="18">
         <v>737717</v>
@@ -2532,16 +2541,16 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F79" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G79" s="18">
         <v>737717</v>
@@ -2555,16 +2564,16 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F80" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G80" s="18">
         <v>737717</v>
@@ -2578,16 +2587,16 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F81" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G81" s="18">
         <v>737717</v>
@@ -2601,16 +2610,16 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F82" s="18">
-        <v>17708</v>
+        <v>29509</v>
       </c>
       <c r="G82" s="18">
         <v>737717</v>
@@ -2624,16 +2633,16 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F83" s="18">
-        <v>17708</v>
+        <v>29509</v>
       </c>
       <c r="G83" s="18">
         <v>737717</v>
@@ -2643,56 +2652,79 @@
       <c r="J83" s="20"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B84" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C84" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E84" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F84" s="24">
-        <v>17708</v>
-      </c>
-      <c r="G84" s="24">
-        <v>737717</v>
-      </c>
-      <c r="H84" s="25"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="26"/>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B89" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C89" s="32"/>
-      <c r="H89" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
+      <c r="B84" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E84" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F84" s="18">
+        <v>29509</v>
+      </c>
+      <c r="G84" s="18">
+        <v>737717</v>
+      </c>
+      <c r="H84" s="19"/>
+      <c r="I84" s="19"/>
+      <c r="J84" s="20"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B85" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D85" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E85" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F85" s="24">
+        <v>27578</v>
+      </c>
+      <c r="G85" s="24">
+        <v>737717</v>
+      </c>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="26"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="32" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C90" s="32"/>
       <c r="H90" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
     </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B91" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C91" s="32"/>
+      <c r="H91" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B91:C91"/>
     <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="H91:J91"/>
     <mergeCell ref="H90:J90"/>
-    <mergeCell ref="H89:J89"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9002303608.xlsx
+++ b/Data/EC/NIT-9002303608.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{110BA528-9AC9-4D72-8E0E-003A29CA5CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55EEF195-BF9C-4836-8BB5-C7AC702E8512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1F8F0788-D2A2-43C6-8A76-DFBE9AA19611}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{09B0C49D-00AA-47FE-9FAD-3EE5F45313F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="49">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,94 +71,85 @@
     <t>ERVER HUMBERTO HERNANDEZ BUELVAS</t>
   </si>
   <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1047390051</t>
+  </si>
+  <si>
+    <t>VANESSA PINTO JARABA</t>
+  </si>
+  <si>
+    <t>1047469714</t>
+  </si>
+  <si>
+    <t>LAURA CERIS HERNANDEZ CEBALLOS</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
     <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1047390051</t>
-  </si>
-  <si>
-    <t>VANESSA PINTO JARABA</t>
-  </si>
-  <si>
-    <t>45537758</t>
-  </si>
-  <si>
-    <t>HILDA DEL ROSARIO ACEVEDO CUELLO</t>
-  </si>
-  <si>
-    <t>1606</t>
-  </si>
-  <si>
-    <t>1047469714</t>
-  </si>
-  <si>
-    <t>LAURA CERIS HERNANDEZ CEBALLOS</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -257,7 +248,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -270,9 +263,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -472,23 +463,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -516,10 +507,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -572,7 +563,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2A797C5-4131-1AA6-1E89-0DC48E3DAD1E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17B5916F-D337-993B-9E1F-E4160E27C70F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -923,8 +914,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35BADE8E-6547-4DB6-8870-09814A1149A0}">
-  <dimension ref="B2:J91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D852E2-BD42-4988-B97C-7E2BE9A26CC1}">
+  <dimension ref="B2:J90"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -948,7 +939,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -993,7 +984,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1025,12 +1016,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2040216</v>
+        <v>2012516</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1041,17 +1032,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C13" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F13" s="5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1078,13 +1069,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1101,10 +1092,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>17708</v>
+        <v>27578</v>
       </c>
       <c r="G16" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1115,19 +1106,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G17" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1138,19 +1129,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G18" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1167,13 +1158,13 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G19" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1184,19 +1175,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
         <v>29509</v>
       </c>
       <c r="G20" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1207,10 +1198,10 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>16</v>
@@ -1219,7 +1210,7 @@
         <v>29509</v>
       </c>
       <c r="G21" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1242,7 +1233,7 @@
         <v>29509</v>
       </c>
       <c r="G22" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1253,19 +1244,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F23" s="18">
         <v>29509</v>
       </c>
       <c r="G23" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1276,19 +1267,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
         <v>29509</v>
       </c>
       <c r="G24" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1305,13 +1296,13 @@
         <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F25" s="18">
         <v>29509</v>
       </c>
       <c r="G25" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1322,19 +1313,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F26" s="18">
         <v>29509</v>
       </c>
       <c r="G26" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1345,19 +1336,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F27" s="18">
         <v>29509</v>
       </c>
       <c r="G27" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1374,13 +1365,13 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F28" s="18">
         <v>29509</v>
       </c>
       <c r="G28" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1391,19 +1382,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F29" s="18">
         <v>29509</v>
       </c>
       <c r="G29" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1414,19 +1405,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F30" s="18">
         <v>29509</v>
       </c>
       <c r="G30" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1443,13 +1434,13 @@
         <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F31" s="18">
         <v>29509</v>
       </c>
       <c r="G31" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1460,19 +1451,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F32" s="18">
         <v>29509</v>
       </c>
       <c r="G32" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1483,19 +1474,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F33" s="18">
         <v>29509</v>
       </c>
       <c r="G33" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1512,13 +1503,13 @@
         <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F34" s="18">
         <v>29509</v>
       </c>
       <c r="G34" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1529,19 +1520,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F35" s="18">
         <v>29509</v>
       </c>
       <c r="G35" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1552,19 +1543,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F36" s="18">
         <v>29509</v>
       </c>
       <c r="G36" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1581,13 +1572,13 @@
         <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F37" s="18">
         <v>29509</v>
       </c>
       <c r="G37" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1598,19 +1589,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F38" s="18">
-        <v>27578</v>
+        <v>29509</v>
       </c>
       <c r="G38" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1621,19 +1612,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F39" s="18">
-        <v>17708</v>
+        <v>29509</v>
       </c>
       <c r="G39" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1644,19 +1635,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F40" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G40" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1667,19 +1658,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F41" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G41" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1690,19 +1681,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F42" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G42" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1713,19 +1704,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F43" s="18">
         <v>29509</v>
       </c>
       <c r="G43" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1736,19 +1727,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F44" s="18">
         <v>29509</v>
       </c>
       <c r="G44" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1759,19 +1750,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F45" s="18">
         <v>29509</v>
       </c>
       <c r="G45" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1782,19 +1773,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F46" s="18">
         <v>29509</v>
       </c>
       <c r="G46" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1805,19 +1796,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F47" s="18">
         <v>29509</v>
       </c>
       <c r="G47" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1828,19 +1819,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F48" s="18">
         <v>29509</v>
       </c>
       <c r="G48" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1851,19 +1842,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F49" s="18">
         <v>29509</v>
       </c>
       <c r="G49" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1874,19 +1865,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F50" s="18">
         <v>29509</v>
       </c>
       <c r="G50" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1897,19 +1888,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F51" s="18">
         <v>29509</v>
       </c>
       <c r="G51" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -1920,19 +1911,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F52" s="18">
         <v>29509</v>
       </c>
       <c r="G52" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -1943,19 +1934,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F53" s="18">
         <v>29509</v>
       </c>
       <c r="G53" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -1966,19 +1957,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F54" s="18">
         <v>29509</v>
       </c>
       <c r="G54" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -1989,19 +1980,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F55" s="18">
         <v>29509</v>
       </c>
       <c r="G55" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2012,10 +2003,10 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E56" s="16" t="s">
         <v>28</v>
@@ -2024,7 +2015,7 @@
         <v>29509</v>
       </c>
       <c r="G56" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2035,19 +2026,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F57" s="18">
         <v>29509</v>
       </c>
       <c r="G57" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2058,19 +2049,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F58" s="18">
         <v>29509</v>
       </c>
       <c r="G58" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2081,19 +2072,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F59" s="18">
         <v>29509</v>
       </c>
       <c r="G59" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2104,19 +2095,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F60" s="18">
         <v>29509</v>
       </c>
       <c r="G60" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2127,19 +2118,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F61" s="18">
         <v>29509</v>
       </c>
       <c r="G61" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2150,19 +2141,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F62" s="18">
-        <v>27700</v>
+        <v>29509</v>
       </c>
       <c r="G62" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2173,19 +2164,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F63" s="18">
-        <v>17708</v>
+        <v>29509</v>
       </c>
       <c r="G63" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2196,19 +2187,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F64" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G64" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2219,19 +2210,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F65" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G65" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2242,19 +2233,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F66" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G66" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2265,19 +2256,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F67" s="18">
         <v>29509</v>
       </c>
       <c r="G67" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2288,19 +2279,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F68" s="18">
         <v>29509</v>
       </c>
       <c r="G68" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2311,19 +2302,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F69" s="18">
         <v>29509</v>
       </c>
       <c r="G69" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2334,19 +2325,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F70" s="18">
         <v>29509</v>
       </c>
       <c r="G70" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2357,19 +2348,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F71" s="18">
         <v>29509</v>
       </c>
       <c r="G71" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2380,19 +2371,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F72" s="18">
         <v>29509</v>
       </c>
       <c r="G72" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2403,19 +2394,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F73" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G73" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2426,19 +2417,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F74" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G74" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2449,19 +2440,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F75" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G75" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2472,19 +2463,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F76" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G76" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2495,19 +2486,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F77" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G77" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2518,19 +2509,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F78" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G78" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2541,19 +2532,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F79" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G79" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2564,19 +2555,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F80" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G80" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2587,19 +2578,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F81" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G81" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2610,19 +2601,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F82" s="18">
-        <v>29509</v>
+        <v>17708</v>
       </c>
       <c r="G82" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2633,98 +2624,75 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F83" s="18">
-        <v>29509</v>
+        <v>17708</v>
       </c>
       <c r="G83" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
       <c r="J83" s="20"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B84" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C84" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D84" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E84" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F84" s="18">
-        <v>29509</v>
-      </c>
-      <c r="G84" s="18">
-        <v>737717</v>
-      </c>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="20"/>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B85" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D85" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E85" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="F85" s="24">
-        <v>27578</v>
-      </c>
-      <c r="G85" s="24">
-        <v>737717</v>
-      </c>
-      <c r="H85" s="25"/>
-      <c r="I85" s="25"/>
-      <c r="J85" s="26"/>
+      <c r="B84" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F84" s="24">
+        <v>17708</v>
+      </c>
+      <c r="G84" s="24">
+        <v>781242</v>
+      </c>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="26"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B89" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C89" s="32"/>
+      <c r="H89" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="32" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C90" s="32"/>
       <c r="H90" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B91" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C91" s="32"/>
-      <c r="H91" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B91:C91"/>
     <mergeCell ref="B90:C90"/>
-    <mergeCell ref="H91:J91"/>
+    <mergeCell ref="B89:C89"/>
     <mergeCell ref="H90:J90"/>
+    <mergeCell ref="H89:J89"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
